--- a/Jogos_do_Dia/2024-04-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="210">
   <si>
     <t>League</t>
   </si>
@@ -178,21 +178,21 @@
     <t>Germany 2. Bundesliga</t>
   </si>
   <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
+    <t>Turkey Süper Lig</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
-    <t>Turkey Süper Lig</t>
-  </si>
-  <si>
-    <t>Portugal LigaPro</t>
+    <t>Austria Bundesliga</t>
   </si>
   <si>
     <t>Switzerland Challenge League</t>
   </si>
   <si>
-    <t>Austria Bundesliga</t>
-  </si>
-  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
@@ -208,28 +208,31 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>Spain La Liga</t>
+  </si>
+  <si>
+    <t>England EFL League One</t>
+  </si>
+  <si>
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>England EFL League One</t>
-  </si>
-  <si>
-    <t>Spain La Liga</t>
-  </si>
-  <si>
     <t>Iceland Úrvalsdeild</t>
   </si>
   <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
+    <t>Paraguay Division Profesional</t>
+  </si>
+  <si>
     <t>Brazil Serie A</t>
   </si>
   <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>Paraguay Division Profesional</t>
+    <t>Chile Primera División</t>
   </si>
   <si>
     <t>09:00:00</t>
@@ -286,6 +289,9 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Zhejiang FC</t>
   </si>
   <si>
@@ -337,22 +343,28 @@
     <t>Nürnberg</t>
   </si>
   <si>
+    <t>CD Feirense</t>
+  </si>
+  <si>
+    <t>Beşiktaş</t>
+  </si>
+  <si>
+    <t>Levski Krumovgrad</t>
+  </si>
+  <si>
+    <t>Al Masry</t>
+  </si>
+  <si>
     <t>Zamalek</t>
   </si>
   <si>
     <t>Randers</t>
   </si>
   <si>
-    <t>Al Masry</t>
-  </si>
-  <si>
-    <t>Beşiktaş</t>
-  </si>
-  <si>
-    <t>Levski Krumovgrad</t>
-  </si>
-  <si>
-    <t>CD Feirense</t>
+    <t>SSC Farul</t>
+  </si>
+  <si>
+    <t>Sturm Graz</t>
   </si>
   <si>
     <t>Bellinzona</t>
@@ -361,33 +373,27 @@
     <t>FC Schaffhausen</t>
   </si>
   <si>
-    <t>Sturm Graz</t>
-  </si>
-  <si>
-    <t>SSC Farul</t>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
   </si>
   <si>
     <t>Den Bosch</t>
   </si>
   <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
+    <t>Sion</t>
   </si>
   <si>
     <t>Aarau</t>
   </si>
   <si>
-    <t>Sion</t>
-  </si>
-  <si>
     <t>Reggiana</t>
   </si>
   <si>
@@ -409,39 +415,42 @@
     <t>CD Tenerife</t>
   </si>
   <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>Galway United</t>
+  </si>
+  <si>
     <t>Derry City</t>
   </si>
   <si>
-    <t>Sligo Rovers</t>
+    <t>Cagliari</t>
   </si>
   <si>
     <t>St Patrick's Athl.</t>
   </si>
   <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
     <t>Bohemians</t>
   </si>
   <si>
-    <t>Galway United</t>
+    <t>Athletic Club Bilbao</t>
+  </si>
+  <si>
+    <t>Oxford United</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Oxford United</t>
-  </si>
-  <si>
-    <t>Athletic Club Bilbao</t>
-  </si>
-  <si>
     <t>Stjarnan</t>
   </si>
   <si>
     <t>Rio Ave FC</t>
   </si>
   <si>
+    <t>Sol de América</t>
+  </si>
+  <si>
     <t>Criciúma</t>
   </si>
   <si>
@@ -451,12 +460,15 @@
     <t>Novorizontino</t>
   </si>
   <si>
-    <t>Sol de América</t>
-  </si>
-  <si>
     <t>Operário PR</t>
   </si>
   <si>
+    <t>Unión La Calera</t>
+  </si>
+  <si>
+    <t>2 de Mayo</t>
+  </si>
+  <si>
     <t>Tianjin Teda</t>
   </si>
   <si>
@@ -508,22 +520,28 @@
     <t>Paderborn</t>
   </si>
   <si>
+    <t>Leixões</t>
+  </si>
+  <si>
+    <t>Ankaragücü</t>
+  </si>
+  <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
+    <t>Al Ahly</t>
+  </si>
+  <si>
     <t>Pyramids FC</t>
   </si>
   <si>
     <t>OB</t>
   </si>
   <si>
-    <t>Al Ahly</t>
-  </si>
-  <si>
-    <t>Ankaragücü</t>
-  </si>
-  <si>
-    <t>Slavia Sofia</t>
-  </si>
-  <si>
-    <t>Leixões</t>
+    <t>CFR Cluj</t>
+  </si>
+  <si>
+    <t>Rapid Wien</t>
   </si>
   <si>
     <t>Baden</t>
@@ -532,33 +550,27 @@
     <t>Neuchâtel Xamax</t>
   </si>
   <si>
-    <t>Rapid Wien</t>
-  </si>
-  <si>
-    <t>CFR Cluj</t>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>Oss</t>
   </si>
   <si>
     <t>NAC Breda</t>
   </si>
   <si>
-    <t>Oss</t>
-  </si>
-  <si>
-    <t>Emmen</t>
-  </si>
-  <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
-    <t>De Graafschap</t>
+    <t>Stade Nyonnais</t>
   </si>
   <si>
     <t>Thun</t>
   </si>
   <si>
-    <t>Stade Nyonnais</t>
-  </si>
-  <si>
     <t>Cosenza</t>
   </si>
   <si>
@@ -580,39 +592,42 @@
     <t>Leganés</t>
   </si>
   <si>
+    <t>Dundalk</t>
+  </si>
+  <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Dundalk</t>
+    <t>Juventus</t>
   </si>
   <si>
     <t>Waterford</t>
   </si>
   <si>
-    <t>Juventus</t>
-  </si>
-  <si>
     <t>Drogheda United</t>
   </si>
   <si>
-    <t>Shelbourne</t>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Granada CF</t>
-  </si>
-  <si>
     <t>Valur</t>
   </si>
   <si>
     <t>FC Arouca</t>
   </si>
   <si>
+    <t>Sportivo Luqueño</t>
+  </si>
+  <si>
     <t>Fortaleza</t>
   </si>
   <si>
@@ -622,10 +637,13 @@
     <t>CRB</t>
   </si>
   <si>
-    <t>Sportivo Luqueño</t>
-  </si>
-  <si>
     <t>Avaí</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Cerro Porteño</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ58"/>
+  <dimension ref="A1:AQ60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,16 +1150,16 @@
         <v>45401</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G2">
         <v>2.88</v>
@@ -1153,13 +1171,13 @@
         <v>3.6</v>
       </c>
       <c r="J2">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="K2">
-        <v>2.99</v>
+        <v>3.4</v>
       </c>
       <c r="L2">
-        <v>2.69</v>
+        <v>2.87</v>
       </c>
       <c r="M2">
         <v>1.4</v>
@@ -1180,7 +1198,7 @@
         <v>3.5</v>
       </c>
       <c r="S2">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="T2">
         <v>1.9</v>
@@ -1263,34 +1281,34 @@
         <v>45401</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H3">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="I3">
+        <v>3.1</v>
+      </c>
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>3.14</v>
-      </c>
       <c r="K3">
-        <v>3.12</v>
+        <v>2.85</v>
       </c>
       <c r="L3">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="M3">
         <v>1.52</v>
@@ -1314,13 +1332,13 @@
         <v>2</v>
       </c>
       <c r="T3">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="U3">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W3">
         <v>1.4</v>
@@ -1347,19 +1365,19 @@
         <v>2.53</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AJ3">
         <v>1.66</v>
@@ -1374,16 +1392,16 @@
         <v>1.74</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1394,16 +1412,16 @@
         <v>45401</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G4">
         <v>2.3</v>
@@ -1415,13 +1433,13 @@
         <v>5.5</v>
       </c>
       <c r="J4">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="K4">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L4">
-        <v>4.3</v>
+        <v>5.25</v>
       </c>
       <c r="M4">
         <v>1.41</v>
@@ -1442,10 +1460,10 @@
         <v>2.93</v>
       </c>
       <c r="S4">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="U4">
         <v>1.98</v>
@@ -1525,16 +1543,16 @@
         <v>45401</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G5">
         <v>2.43</v>
@@ -1546,13 +1564,13 @@
         <v>5.73</v>
       </c>
       <c r="J5">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="K5">
         <v>3.25</v>
       </c>
       <c r="L5">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="M5">
         <v>1.5</v>
@@ -1656,16 +1674,16 @@
         <v>45401</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1680,10 +1698,10 @@
         <v>2.41</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="L6">
-        <v>2.71</v>
+        <v>2.87</v>
       </c>
       <c r="M6">
         <v>1.37</v>
@@ -1704,10 +1722,10 @@
         <v>3.42</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T6">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="U6">
         <v>1.68</v>
@@ -1787,16 +1805,16 @@
         <v>45401</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G7">
         <v>3.36</v>
@@ -1918,16 +1936,16 @@
         <v>45401</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G8">
         <v>1.89</v>
@@ -1939,13 +1957,13 @@
         <v>6.25</v>
       </c>
       <c r="J8">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="K8">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="L8">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="M8">
         <v>1.32</v>
@@ -1969,7 +1987,7 @@
         <v>1.65</v>
       </c>
       <c r="T8">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="U8">
         <v>1.88</v>
@@ -2002,43 +2020,43 @@
         <v>3.19</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2049,16 +2067,16 @@
         <v>45401</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>3.04</v>
@@ -2070,13 +2088,13 @@
         <v>3.89</v>
       </c>
       <c r="J9">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="K9">
-        <v>3.15</v>
+        <v>3.07</v>
       </c>
       <c r="L9">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="M9">
         <v>1.45</v>
@@ -2097,10 +2115,10 @@
         <v>3.02</v>
       </c>
       <c r="S9">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T9">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="U9">
         <v>1.88</v>
@@ -2180,34 +2198,34 @@
         <v>45401</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G10">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>2.38</v>
       </c>
       <c r="I10">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="L10">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M10">
         <v>1.3</v>
@@ -2228,10 +2246,10 @@
         <v>4.6</v>
       </c>
       <c r="S10">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T10">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
         <v>1.73</v>
@@ -2311,19 +2329,19 @@
         <v>45401</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G11">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H11">
         <v>2.3</v>
@@ -2332,13 +2350,13 @@
         <v>4.5</v>
       </c>
       <c r="J11">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K11">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="M11">
         <v>1.33</v>
@@ -2359,10 +2377,10 @@
         <v>3.9</v>
       </c>
       <c r="S11">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T11">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U11">
         <v>1.73</v>
@@ -2422,10 +2440,10 @@
         <v>2.53</v>
       </c>
       <c r="AN11">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="AO11">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AP11">
         <v>2.25</v>
@@ -2442,16 +2460,16 @@
         <v>45401</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G12">
         <v>2.75</v>
@@ -2463,13 +2481,13 @@
         <v>3.4</v>
       </c>
       <c r="J12">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <v>1.32</v>
@@ -2490,10 +2508,10 @@
         <v>3.8</v>
       </c>
       <c r="S12">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T12">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U12">
         <v>1.62</v>
@@ -2573,16 +2591,16 @@
         <v>45401</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G13">
         <v>2.1</v>
@@ -2594,13 +2612,13 @@
         <v>5.5</v>
       </c>
       <c r="J13">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M13">
         <v>1.35</v>
@@ -2621,10 +2639,10 @@
         <v>3.42</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U13">
         <v>1.91</v>
@@ -2704,19 +2722,19 @@
         <v>45401</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G14">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H14">
         <v>2.3</v>
@@ -2725,13 +2743,13 @@
         <v>4.33</v>
       </c>
       <c r="J14">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="K14">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
         <v>1.28</v>
@@ -2752,16 +2770,16 @@
         <v>4.7</v>
       </c>
       <c r="S14">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T14">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U14">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V14">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W14">
         <v>1.22</v>
@@ -2835,16 +2853,16 @@
         <v>45401</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G15">
         <v>3.1</v>
@@ -2856,13 +2874,13 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="K15">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="L15">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
         <v>1.5</v>
@@ -2883,10 +2901,10 @@
         <v>2.75</v>
       </c>
       <c r="S15">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="T15">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U15">
         <v>1.91</v>
@@ -2928,10 +2946,10 @@
         <v>2.05</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AJ15">
         <v>1.5</v>
@@ -2966,16 +2984,16 @@
         <v>45401</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G16">
         <v>3.75</v>
@@ -2987,13 +3005,13 @@
         <v>3.4</v>
       </c>
       <c r="J16">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="K16">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="L16">
-        <v>2.55</v>
+        <v>2.78</v>
       </c>
       <c r="M16">
         <v>1.53</v>
@@ -3014,10 +3032,10 @@
         <v>2.6</v>
       </c>
       <c r="S16">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="T16">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="U16">
         <v>2.05</v>
@@ -3097,16 +3115,16 @@
         <v>45401</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G17">
         <v>2.9</v>
@@ -3118,13 +3136,13 @@
         <v>2.95</v>
       </c>
       <c r="J17">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="K17">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="L17">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="M17">
         <v>1.25</v>
@@ -3228,16 +3246,16 @@
         <v>45401</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G18">
         <v>3.56</v>
@@ -3249,13 +3267,13 @@
         <v>2.69</v>
       </c>
       <c r="J18">
-        <v>3.05</v>
+        <v>2.79</v>
       </c>
       <c r="K18">
         <v>3.5</v>
       </c>
       <c r="L18">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="M18">
         <v>1.27</v>
@@ -3321,10 +3339,10 @@
         <v>2.05</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ18">
         <v>1.27</v>
@@ -3353,356 +3371,356 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2">
         <v>45401</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G19">
-        <v>4.01</v>
+        <v>3.45</v>
       </c>
       <c r="H19">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="I19">
-        <v>2.71</v>
+        <v>3.2</v>
       </c>
       <c r="J19">
-        <v>3.25</v>
+        <v>2.61</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="L19">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="M19">
+        <v>1.48</v>
+      </c>
+      <c r="N19">
+        <v>2.45</v>
+      </c>
+      <c r="O19">
+        <v>1.07</v>
+      </c>
+      <c r="P19">
+        <v>7.5</v>
+      </c>
+      <c r="Q19">
+        <v>1.4</v>
+      </c>
+      <c r="R19">
+        <v>2.8</v>
+      </c>
+      <c r="S19">
+        <v>2.15</v>
+      </c>
+      <c r="T19">
+        <v>1.65</v>
+      </c>
+      <c r="U19">
+        <v>1.83</v>
+      </c>
+      <c r="V19">
+        <v>1.8</v>
+      </c>
+      <c r="W19">
+        <v>1.5</v>
+      </c>
+      <c r="X19">
+        <v>1.3</v>
+      </c>
+      <c r="Y19">
+        <v>1.4</v>
+      </c>
+      <c r="Z19">
+        <v>1.43</v>
+      </c>
+      <c r="AA19">
+        <v>1.36</v>
+      </c>
+      <c r="AB19">
         <v>1.37</v>
       </c>
-      <c r="N19">
-        <v>3.01</v>
-      </c>
-      <c r="O19">
-        <v>1.03</v>
-      </c>
-      <c r="P19">
-        <v>9</v>
-      </c>
-      <c r="Q19">
-        <v>1.28</v>
-      </c>
-      <c r="R19">
-        <v>3.52</v>
-      </c>
-      <c r="S19">
-        <v>1.64</v>
-      </c>
-      <c r="T19">
-        <v>1.67</v>
-      </c>
-      <c r="U19">
-        <v>1.73</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>1.7</v>
-      </c>
-      <c r="X19">
-        <v>1.35</v>
-      </c>
-      <c r="Y19">
+      <c r="AC19">
+        <v>1.29</v>
+      </c>
+      <c r="AD19">
+        <v>2.66</v>
+      </c>
+      <c r="AE19">
+        <v>1.93</v>
+      </c>
+      <c r="AF19">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG19">
+        <v>2.09</v>
+      </c>
+      <c r="AH19">
+        <v>1.14</v>
+      </c>
+      <c r="AI19">
+        <v>4.89</v>
+      </c>
+      <c r="AJ19">
         <v>1.3</v>
       </c>
-      <c r="Z19">
-        <v>1.75</v>
-      </c>
-      <c r="AA19">
-        <v>2</v>
-      </c>
-      <c r="AB19">
-        <v>1.74</v>
-      </c>
-      <c r="AC19">
-        <v>1.77</v>
-      </c>
-      <c r="AD19">
-        <v>3.51</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2">
         <v>45401</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G20">
+        <v>2.28</v>
+      </c>
+      <c r="H20">
         <v>2.38</v>
       </c>
-      <c r="H20">
-        <v>2.15</v>
-      </c>
       <c r="I20">
-        <v>4.33</v>
+        <v>5.36</v>
       </c>
       <c r="J20">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="K20">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L20">
+        <v>4.8</v>
+      </c>
+      <c r="M20">
+        <v>1.37</v>
+      </c>
+      <c r="N20">
+        <v>3.2</v>
+      </c>
+      <c r="O20">
+        <v>1.05</v>
+      </c>
+      <c r="P20">
+        <v>9.5</v>
+      </c>
+      <c r="Q20">
+        <v>1.25</v>
+      </c>
+      <c r="R20">
         <v>3.75</v>
       </c>
-      <c r="M20">
+      <c r="S20">
+        <v>1.78</v>
+      </c>
+      <c r="T20">
+        <v>1.9</v>
+      </c>
+      <c r="U20">
+        <v>1.75</v>
+      </c>
+      <c r="V20">
+        <v>1.95</v>
+      </c>
+      <c r="W20">
+        <v>1.18</v>
+      </c>
+      <c r="X20">
+        <v>1.2</v>
+      </c>
+      <c r="Y20">
+        <v>2.1</v>
+      </c>
+      <c r="Z20">
+        <v>1.69</v>
+      </c>
+      <c r="AA20">
+        <v>0.8</v>
+      </c>
+      <c r="AB20">
+        <v>1.61</v>
+      </c>
+      <c r="AC20">
+        <v>1.12</v>
+      </c>
+      <c r="AD20">
+        <v>2.73</v>
+      </c>
+      <c r="AE20">
+        <v>1.46</v>
+      </c>
+      <c r="AF20">
+        <v>7.5</v>
+      </c>
+      <c r="AG20">
+        <v>3.5</v>
+      </c>
+      <c r="AH20">
         <v>1.36</v>
       </c>
-      <c r="N20">
-        <v>2.88</v>
-      </c>
-      <c r="O20">
-        <v>1.01</v>
-      </c>
-      <c r="P20">
-        <v>9.9</v>
-      </c>
-      <c r="Q20">
-        <v>1.26</v>
-      </c>
-      <c r="R20">
-        <v>3.82</v>
-      </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>1.93</v>
-      </c>
-      <c r="U20">
+      <c r="AI20">
+        <v>2.8</v>
+      </c>
+      <c r="AJ20">
         <v>1.7</v>
       </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>1.22</v>
-      </c>
-      <c r="X20">
-        <v>1.25</v>
-      </c>
-      <c r="Y20">
-        <v>1.9</v>
-      </c>
-      <c r="Z20">
-        <v>1.33</v>
-      </c>
-      <c r="AA20">
-        <v>1.83</v>
-      </c>
-      <c r="AB20">
-        <v>1.39</v>
-      </c>
-      <c r="AC20">
-        <v>1.17</v>
-      </c>
-      <c r="AD20">
-        <v>2.56</v>
-      </c>
-      <c r="AE20">
-        <v>1.59</v>
-      </c>
-      <c r="AF20">
-        <v>8.5</v>
-      </c>
-      <c r="AG20">
-        <v>2.78</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>1.45</v>
-      </c>
       <c r="AK20">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="AL20">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AM20">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="AN20">
-        <v>1.92</v>
+        <v>2.8</v>
       </c>
       <c r="AO20">
-        <v>1.88</v>
+        <v>1.37</v>
       </c>
       <c r="AP20">
-        <v>2.85</v>
+        <v>3.9</v>
       </c>
       <c r="AQ20">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2">
         <v>45401</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AA21">
-        <v>1.75</v>
+        <v>0.86</v>
       </c>
       <c r="AB21">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AC21">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="AD21">
-        <v>3.36</v>
+        <v>2.86</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3746,225 +3764,225 @@
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2">
         <v>45401</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G22">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4.65</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>2</v>
       </c>
-      <c r="U22">
+      <c r="AA22">
         <v>1.75</v>
       </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
-      <c r="W22">
-        <v>1.18</v>
-      </c>
-      <c r="X22">
-        <v>1.2</v>
-      </c>
-      <c r="Y22">
-        <v>2.1</v>
-      </c>
-      <c r="Z22">
-        <v>1.69</v>
-      </c>
-      <c r="AA22">
-        <v>0.8</v>
-      </c>
       <c r="AB22">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AC22">
-        <v>1.12</v>
+        <v>1.9</v>
       </c>
       <c r="AD22">
-        <v>2.73</v>
+        <v>3.36</v>
       </c>
       <c r="AE22">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AK22">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AN22">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2">
         <v>45401</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G23">
-        <v>3.6</v>
+        <v>1.06</v>
       </c>
       <c r="H23">
+        <v>1.2</v>
+      </c>
+      <c r="I23">
+        <v>1.06</v>
+      </c>
+      <c r="J23">
+        <v>2.1</v>
+      </c>
+      <c r="K23">
+        <v>2.06</v>
+      </c>
+      <c r="L23">
+        <v>2.06</v>
+      </c>
+      <c r="M23">
+        <v>1.37</v>
+      </c>
+      <c r="N23">
+        <v>3.01</v>
+      </c>
+      <c r="O23">
+        <v>1.01</v>
+      </c>
+      <c r="P23">
+        <v>2.6</v>
+      </c>
+      <c r="Q23">
+        <v>1.16</v>
+      </c>
+      <c r="R23">
+        <v>2.6</v>
+      </c>
+      <c r="S23">
+        <v>1.81</v>
+      </c>
+      <c r="T23">
+        <v>1.53</v>
+      </c>
+      <c r="U23">
+        <v>1.73</v>
+      </c>
+      <c r="V23">
         <v>2</v>
       </c>
-      <c r="I23">
-        <v>3.4</v>
-      </c>
-      <c r="J23">
-        <v>2.97</v>
-      </c>
-      <c r="K23">
-        <v>2.99</v>
-      </c>
-      <c r="L23">
-        <v>2.23</v>
-      </c>
-      <c r="M23">
-        <v>1.54</v>
-      </c>
-      <c r="N23">
-        <v>2.38</v>
-      </c>
-      <c r="O23">
-        <v>1.06</v>
-      </c>
-      <c r="P23">
-        <v>6.5</v>
-      </c>
-      <c r="Q23">
-        <v>1.5</v>
-      </c>
-      <c r="R23">
-        <v>2.54</v>
-      </c>
-      <c r="S23">
-        <v>2.3</v>
-      </c>
-      <c r="T23">
-        <v>1.55</v>
-      </c>
-      <c r="U23">
-        <v>2.04</v>
-      </c>
-      <c r="V23">
-        <v>1.69</v>
-      </c>
       <c r="W23">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="X23">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="Y23">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="Z23">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="AA23">
-        <v>0.86</v>
+        <v>2</v>
       </c>
       <c r="AB23">
-        <v>1.44</v>
+        <v>1.74</v>
       </c>
       <c r="AC23">
-        <v>1.42</v>
+        <v>1.77</v>
       </c>
       <c r="AD23">
-        <v>2.86</v>
+        <v>3.51</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3988,16 +4006,16 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AP23">
         <v>0</v>
@@ -4014,258 +4032,258 @@
         <v>45401</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G24">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="H24">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="I24">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="J24">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="K24">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="O24">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P24">
-        <v>7.5</v>
+        <v>9.9</v>
       </c>
       <c r="Q24">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="R24">
-        <v>2.8</v>
+        <v>3.82</v>
       </c>
       <c r="S24">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="U24">
+        <v>1.7</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>1.22</v>
+      </c>
+      <c r="X24">
+        <v>1.25</v>
+      </c>
+      <c r="Y24">
+        <v>1.9</v>
+      </c>
+      <c r="Z24">
+        <v>1.33</v>
+      </c>
+      <c r="AA24">
         <v>1.83</v>
       </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
-      <c r="W24">
-        <v>1.5</v>
-      </c>
-      <c r="X24">
-        <v>1.3</v>
-      </c>
-      <c r="Y24">
-        <v>1.4</v>
-      </c>
-      <c r="Z24">
-        <v>1.43</v>
-      </c>
-      <c r="AA24">
-        <v>1.36</v>
-      </c>
       <c r="AB24">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AC24">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AD24">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2">
         <v>45401</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G25">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H25">
+        <v>2.19</v>
+      </c>
+      <c r="I25">
+        <v>2.89</v>
+      </c>
+      <c r="J25">
+        <v>3.15</v>
+      </c>
+      <c r="K25">
+        <v>3.25</v>
+      </c>
+      <c r="L25">
         <v>2.25</v>
       </c>
-      <c r="I25">
-        <v>4.33</v>
-      </c>
-      <c r="J25">
-        <v>1.75</v>
-      </c>
-      <c r="K25">
-        <v>3.6</v>
-      </c>
-      <c r="L25">
-        <v>4.2</v>
-      </c>
       <c r="M25">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="N25">
-        <v>3.23</v>
+        <v>2.92</v>
       </c>
       <c r="O25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P25">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Q25">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="R25">
-        <v>3.87</v>
+        <v>3.34</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T25">
+        <v>1.7</v>
+      </c>
+      <c r="U25">
+        <v>1.78</v>
+      </c>
+      <c r="V25">
+        <v>1.95</v>
+      </c>
+      <c r="W25">
+        <v>1.58</v>
+      </c>
+      <c r="X25">
+        <v>1.28</v>
+      </c>
+      <c r="Y25">
+        <v>1.35</v>
+      </c>
+      <c r="Z25">
+        <v>1.38</v>
+      </c>
+      <c r="AA25">
+        <v>1.35</v>
+      </c>
+      <c r="AB25">
+        <v>1.81</v>
+      </c>
+      <c r="AC25">
+        <v>1.68</v>
+      </c>
+      <c r="AD25">
+        <v>3.49</v>
+      </c>
+      <c r="AE25">
         <v>2</v>
       </c>
-      <c r="U25">
+      <c r="AF25">
+        <v>7.85</v>
+      </c>
+      <c r="AG25">
+        <v>2.2</v>
+      </c>
+      <c r="AH25">
+        <v>1.28</v>
+      </c>
+      <c r="AI25">
+        <v>3.34</v>
+      </c>
+      <c r="AJ25">
+        <v>1.53</v>
+      </c>
+      <c r="AK25">
+        <v>2.33</v>
+      </c>
+      <c r="AL25">
+        <v>1.99</v>
+      </c>
+      <c r="AM25">
         <v>1.73</v>
       </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
-      <c r="W25">
-        <v>1.25</v>
-      </c>
-      <c r="X25">
-        <v>1.25</v>
-      </c>
-      <c r="Y25">
-        <v>1.78</v>
-      </c>
-      <c r="Z25">
-        <v>1.15</v>
-      </c>
-      <c r="AA25">
-        <v>0.86</v>
-      </c>
-      <c r="AB25">
-        <v>1.55</v>
-      </c>
-      <c r="AC25">
-        <v>1.08</v>
-      </c>
-      <c r="AD25">
-        <v>2.63</v>
-      </c>
-      <c r="AE25">
-        <v>1.83</v>
-      </c>
-      <c r="AF25">
-        <v>8.9</v>
-      </c>
-      <c r="AG25">
-        <v>2.18</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>1.32</v>
-      </c>
-      <c r="AK25">
-        <v>2.98</v>
-      </c>
-      <c r="AL25">
-        <v>1.64</v>
-      </c>
-      <c r="AM25">
-        <v>2.19</v>
-      </c>
       <c r="AN25">
-        <v>2.02</v>
+        <v>2.62</v>
       </c>
       <c r="AO25">
-        <v>1.76</v>
+        <v>1.43</v>
       </c>
       <c r="AP25">
-        <v>2.54</v>
+        <v>3.69</v>
       </c>
       <c r="AQ25">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4276,127 +4294,127 @@
         <v>45401</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G26">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="H26">
         <v>2.2</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>2.6</v>
+        <v>2.07</v>
       </c>
       <c r="K26">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L26">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="M26">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="N26">
-        <v>2.94</v>
+        <v>2.75</v>
       </c>
       <c r="O26">
         <v>1.01</v>
       </c>
       <c r="P26">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q26">
+        <v>1.25</v>
+      </c>
+      <c r="R26">
+        <v>3.42</v>
+      </c>
+      <c r="S26">
+        <v>1.68</v>
+      </c>
+      <c r="T26">
+        <v>1.87</v>
+      </c>
+      <c r="U26">
+        <v>1.75</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>1.31</v>
+      </c>
+      <c r="X26">
+        <v>1.3</v>
+      </c>
+      <c r="Y26">
+        <v>1.77</v>
+      </c>
+      <c r="Z26">
+        <v>2.08</v>
+      </c>
+      <c r="AA26">
+        <v>1.77</v>
+      </c>
+      <c r="AB26">
+        <v>1.6</v>
+      </c>
+      <c r="AC26">
+        <v>1.59</v>
+      </c>
+      <c r="AD26">
+        <v>3.19</v>
+      </c>
+      <c r="AE26">
+        <v>1.82</v>
+      </c>
+      <c r="AF26">
+        <v>8</v>
+      </c>
+      <c r="AG26">
+        <v>2.39</v>
+      </c>
+      <c r="AH26">
         <v>1.24</v>
       </c>
-      <c r="R26">
-        <v>3.9</v>
-      </c>
-      <c r="S26">
+      <c r="AI26">
+        <v>3.8</v>
+      </c>
+      <c r="AJ26">
+        <v>1.5</v>
+      </c>
+      <c r="AK26">
+        <v>2.4</v>
+      </c>
+      <c r="AL26">
         <v>1.8</v>
       </c>
-      <c r="T26">
+      <c r="AM26">
         <v>2</v>
       </c>
-      <c r="U26">
-        <v>1.67</v>
-      </c>
-      <c r="V26">
-        <v>2.1</v>
-      </c>
-      <c r="W26">
-        <v>1.48</v>
-      </c>
-      <c r="X26">
-        <v>1.28</v>
-      </c>
-      <c r="Y26">
-        <v>1.42</v>
-      </c>
-      <c r="Z26">
-        <v>1.27</v>
-      </c>
-      <c r="AA26">
-        <v>1</v>
-      </c>
-      <c r="AB26">
-        <v>1.35</v>
-      </c>
-      <c r="AC26">
-        <v>1.48</v>
-      </c>
-      <c r="AD26">
-        <v>2.83</v>
-      </c>
-      <c r="AE26">
-        <v>2.01</v>
-      </c>
-      <c r="AF26">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG26">
-        <v>1.98</v>
-      </c>
-      <c r="AH26">
-        <v>1.19</v>
-      </c>
-      <c r="AI26">
-        <v>3.96</v>
-      </c>
-      <c r="AJ26">
-        <v>1.38</v>
-      </c>
-      <c r="AK26">
-        <v>2.71</v>
-      </c>
-      <c r="AL26">
-        <v>1.73</v>
-      </c>
-      <c r="AM26">
-        <v>2.08</v>
-      </c>
       <c r="AN26">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AO26">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AP26">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AQ26">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -4407,97 +4425,97 @@
         <v>45401</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G27">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="H27">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J27">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="K27">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="M27">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N27">
-        <v>2.75</v>
+        <v>3.23</v>
       </c>
       <c r="O27">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P27">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q27">
         <v>1.25</v>
       </c>
       <c r="R27">
-        <v>3.42</v>
+        <v>3.87</v>
       </c>
       <c r="S27">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V27">
         <v>2</v>
       </c>
       <c r="W27">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="X27">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y27">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Z27">
-        <v>2.08</v>
+        <v>1.15</v>
       </c>
       <c r="AA27">
-        <v>1.77</v>
+        <v>0.86</v>
       </c>
       <c r="AB27">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AC27">
-        <v>1.59</v>
+        <v>1.08</v>
       </c>
       <c r="AD27">
-        <v>3.19</v>
+        <v>2.63</v>
       </c>
       <c r="AE27">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AF27">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="AG27">
-        <v>2.39</v>
+        <v>2.18</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -4506,159 +4524,159 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AK27">
-        <v>2.4</v>
+        <v>2.98</v>
       </c>
       <c r="AL27">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="AN27">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="AO27">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2">
         <v>45401</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G28">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H28">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="I28">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="J28">
-        <v>2.92</v>
+        <v>2.55</v>
       </c>
       <c r="K28">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="L28">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="M28">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="N28">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O28">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P28">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Q28">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="R28">
-        <v>3.34</v>
+        <v>3.9</v>
       </c>
       <c r="S28">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U28">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W28">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="X28">
         <v>1.28</v>
       </c>
       <c r="Y28">
+        <v>1.42</v>
+      </c>
+      <c r="Z28">
+        <v>1.27</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
         <v>1.35</v>
       </c>
-      <c r="Z28">
+      <c r="AC28">
+        <v>1.48</v>
+      </c>
+      <c r="AD28">
+        <v>2.83</v>
+      </c>
+      <c r="AE28">
+        <v>2.01</v>
+      </c>
+      <c r="AF28">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG28">
+        <v>1.98</v>
+      </c>
+      <c r="AH28">
+        <v>1.19</v>
+      </c>
+      <c r="AI28">
+        <v>3.96</v>
+      </c>
+      <c r="AJ28">
         <v>1.38</v>
       </c>
-      <c r="AA28">
-        <v>1.35</v>
-      </c>
-      <c r="AB28">
-        <v>1.81</v>
-      </c>
-      <c r="AC28">
+      <c r="AK28">
+        <v>2.71</v>
+      </c>
+      <c r="AL28">
+        <v>1.73</v>
+      </c>
+      <c r="AM28">
+        <v>2.08</v>
+      </c>
+      <c r="AN28">
+        <v>2.15</v>
+      </c>
+      <c r="AO28">
         <v>1.68</v>
       </c>
-      <c r="AD28">
-        <v>3.49</v>
-      </c>
-      <c r="AE28">
-        <v>2</v>
-      </c>
-      <c r="AF28">
-        <v>7.85</v>
-      </c>
-      <c r="AG28">
-        <v>2.2</v>
-      </c>
-      <c r="AH28">
-        <v>1.28</v>
-      </c>
-      <c r="AI28">
-        <v>3.34</v>
-      </c>
-      <c r="AJ28">
-        <v>1.53</v>
-      </c>
-      <c r="AK28">
-        <v>2.33</v>
-      </c>
-      <c r="AL28">
-        <v>1.99</v>
-      </c>
-      <c r="AM28">
-        <v>1.73</v>
-      </c>
-      <c r="AN28">
-        <v>2.62</v>
-      </c>
-      <c r="AO28">
-        <v>1.43</v>
-      </c>
       <c r="AP28">
-        <v>3.69</v>
+        <v>2.79</v>
       </c>
       <c r="AQ28">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -4669,127 +4687,127 @@
         <v>45401</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G29">
+        <v>2.45</v>
+      </c>
+      <c r="H29">
+        <v>2.33</v>
+      </c>
+      <c r="I29">
+        <v>3.4</v>
+      </c>
+      <c r="J29">
+        <v>1.88</v>
+      </c>
+      <c r="K29">
+        <v>4.09</v>
+      </c>
+      <c r="L29">
+        <v>3.64</v>
+      </c>
+      <c r="M29">
+        <v>1.22</v>
+      </c>
+      <c r="N29">
+        <v>3.9</v>
+      </c>
+      <c r="O29">
+        <v>1.01</v>
+      </c>
+      <c r="P29">
+        <v>26</v>
+      </c>
+      <c r="Q29">
+        <v>1.12</v>
+      </c>
+      <c r="R29">
+        <v>5.75</v>
+      </c>
+      <c r="S29">
+        <v>1.38</v>
+      </c>
+      <c r="T29">
+        <v>2.8</v>
+      </c>
+      <c r="U29">
+        <v>1.38</v>
+      </c>
+      <c r="V29">
+        <v>2.8</v>
+      </c>
+      <c r="W29">
+        <v>1.32</v>
+      </c>
+      <c r="X29">
+        <v>1.16</v>
+      </c>
+      <c r="Y29">
+        <v>1.75</v>
+      </c>
+      <c r="Z29">
+        <v>1.71</v>
+      </c>
+      <c r="AA29">
+        <v>0.65</v>
+      </c>
+      <c r="AB29">
+        <v>1.53</v>
+      </c>
+      <c r="AC29">
+        <v>1.42</v>
+      </c>
+      <c r="AD29">
+        <v>2.95</v>
+      </c>
+      <c r="AE29">
+        <v>1.58</v>
+      </c>
+      <c r="AF29">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG29">
+        <v>2.74</v>
+      </c>
+      <c r="AH29">
+        <v>1.22</v>
+      </c>
+      <c r="AI29">
         <v>4</v>
       </c>
-      <c r="H29">
-        <v>2.25</v>
-      </c>
-      <c r="I29">
-        <v>2.55</v>
-      </c>
-      <c r="J29">
-        <v>3.87</v>
-      </c>
-      <c r="K29">
-        <v>3.61</v>
-      </c>
-      <c r="L29">
-        <v>1.93</v>
-      </c>
-      <c r="M29">
-        <v>1.35</v>
-      </c>
-      <c r="N29">
-        <v>2.9</v>
-      </c>
-      <c r="O29">
-        <v>1.03</v>
-      </c>
-      <c r="P29">
-        <v>8.5</v>
-      </c>
-      <c r="Q29">
-        <v>1.24</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>1.84</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>1.7</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>1.85</v>
-      </c>
-      <c r="X29">
-        <v>1.29</v>
-      </c>
-      <c r="Y29">
-        <v>1.28</v>
-      </c>
-      <c r="Z29">
-        <v>0.82</v>
-      </c>
-      <c r="AA29">
-        <v>1.47</v>
-      </c>
-      <c r="AB29">
-        <v>1.26</v>
-      </c>
-      <c r="AC29">
-        <v>1.45</v>
-      </c>
-      <c r="AD29">
-        <v>2.71</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4800,127 +4818,127 @@
         <v>45401</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G30">
-        <v>1.92</v>
+        <v>2.8</v>
       </c>
       <c r="H30">
-        <v>2.79</v>
+        <v>2.44</v>
       </c>
       <c r="I30">
-        <v>5.59</v>
+        <v>3.48</v>
       </c>
       <c r="J30">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="K30">
-        <v>4.8</v>
+        <v>3.64</v>
       </c>
       <c r="L30">
-        <v>5.56</v>
+        <v>2.96</v>
       </c>
       <c r="M30">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="N30">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="O30">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q30">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="R30">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="S30">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="T30">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="U30">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="V30">
         <v>2.4</v>
       </c>
       <c r="W30">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="X30">
+        <v>1.29</v>
+      </c>
+      <c r="Y30">
+        <v>1.6</v>
+      </c>
+      <c r="Z30">
+        <v>1.47</v>
+      </c>
+      <c r="AA30">
+        <v>1.12</v>
+      </c>
+      <c r="AB30">
+        <v>1.69</v>
+      </c>
+      <c r="AC30">
+        <v>1.45</v>
+      </c>
+      <c r="AD30">
+        <v>3.14</v>
+      </c>
+      <c r="AE30">
+        <v>1.72</v>
+      </c>
+      <c r="AF30">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG30">
+        <v>2.41</v>
+      </c>
+      <c r="AH30">
         <v>1.18</v>
       </c>
-      <c r="Y30">
-        <v>2.6</v>
-      </c>
-      <c r="Z30">
-        <v>2.12</v>
-      </c>
-      <c r="AA30">
-        <v>0.65</v>
-      </c>
-      <c r="AB30">
-        <v>1.8</v>
-      </c>
-      <c r="AC30">
-        <v>1.17</v>
-      </c>
-      <c r="AD30">
-        <v>2.97</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
       <c r="AI30">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4931,127 +4949,127 @@
         <v>45401</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31">
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G31">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="H31">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I31">
-        <v>3.48</v>
+        <v>3.8</v>
       </c>
       <c r="J31">
-        <v>2.29</v>
+        <v>1.9</v>
       </c>
       <c r="K31">
-        <v>3.64</v>
+        <v>3.92</v>
       </c>
       <c r="L31">
-        <v>2.96</v>
+        <v>3.68</v>
       </c>
       <c r="M31">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="N31">
-        <v>3.35</v>
+        <v>3.72</v>
       </c>
       <c r="O31">
         <v>1.02</v>
       </c>
       <c r="P31">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q31">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="R31">
-        <v>4.25</v>
+        <v>5.1</v>
       </c>
       <c r="S31">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="T31">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="U31">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="V31">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="W31">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="X31">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="Y31">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z31">
+        <v>2.47</v>
+      </c>
+      <c r="AA31">
         <v>1.47</v>
       </c>
-      <c r="AA31">
-        <v>1.12</v>
-      </c>
       <c r="AB31">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AC31">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AD31">
-        <v>3.14</v>
+        <v>3.43</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -5062,52 +5080,52 @@
         <v>45401</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32">
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G32">
-        <v>2.45</v>
+        <v>1.92</v>
       </c>
       <c r="H32">
-        <v>2.33</v>
+        <v>2.79</v>
       </c>
       <c r="I32">
-        <v>3.4</v>
+        <v>5.59</v>
       </c>
       <c r="J32">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="K32">
-        <v>4.09</v>
+        <v>4.8</v>
       </c>
       <c r="L32">
-        <v>3.64</v>
+        <v>5.56</v>
       </c>
       <c r="M32">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="N32">
         <v>3.9</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P32">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Q32">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="R32">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="S32">
         <v>1.38</v>
@@ -5116,73 +5134,73 @@
         <v>2.8</v>
       </c>
       <c r="U32">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="V32">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="W32">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="X32">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="Y32">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z32">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
       <c r="AA32">
         <v>0.65</v>
       </c>
       <c r="AB32">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AC32">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AD32">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5193,171 +5211,171 @@
         <v>45401</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D33">
         <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G33">
-        <v>2.33</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="I33">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="J33">
-        <v>1.9</v>
+        <v>3.87</v>
       </c>
       <c r="K33">
-        <v>3.92</v>
+        <v>3.61</v>
       </c>
       <c r="L33">
-        <v>3.68</v>
+        <v>1.93</v>
       </c>
       <c r="M33">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="N33">
-        <v>3.72</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P33">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="Q33">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="R33">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="S33">
-        <v>1.45</v>
+        <v>1.84</v>
       </c>
       <c r="T33">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="V33">
-        <v>2.52</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>1.27</v>
+        <v>1.85</v>
       </c>
       <c r="X33">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="Y33">
-        <v>1.9</v>
+        <v>1.28</v>
       </c>
       <c r="Z33">
-        <v>2.47</v>
+        <v>0.82</v>
       </c>
       <c r="AA33">
         <v>1.47</v>
       </c>
       <c r="AB33">
-        <v>1.92</v>
+        <v>1.26</v>
       </c>
       <c r="AC33">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AD33">
-        <v>3.43</v>
+        <v>2.71</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2">
         <v>45401</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G34">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="H34">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="I34">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="J34">
-        <v>3.2</v>
+        <v>1.44</v>
       </c>
       <c r="K34">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="L34">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="M34">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="N34">
-        <v>3.54</v>
+        <v>3.46</v>
       </c>
       <c r="O34">
         <v>1.02</v>
@@ -5369,7 +5387,7 @@
         <v>1.15</v>
       </c>
       <c r="R34">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="S34">
         <v>1.57</v>
@@ -5378,117 +5396,117 @@
         <v>2.35</v>
       </c>
       <c r="U34">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="W34">
-        <v>1.75</v>
+        <v>1.12</v>
       </c>
       <c r="X34">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="Y34">
-        <v>1.29</v>
+        <v>2.4</v>
       </c>
       <c r="Z34">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="AA34">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AB34">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AC34">
+        <v>1.54</v>
+      </c>
+      <c r="AD34">
+        <v>2.97</v>
+      </c>
+      <c r="AE34">
+        <v>1.33</v>
+      </c>
+      <c r="AF34">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG34">
+        <v>3.78</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>1.34</v>
+      </c>
+      <c r="AK34">
+        <v>2.88</v>
+      </c>
+      <c r="AL34">
+        <v>1.65</v>
+      </c>
+      <c r="AM34">
+        <v>2.17</v>
+      </c>
+      <c r="AN34">
+        <v>2.06</v>
+      </c>
+      <c r="AO34">
+        <v>1.73</v>
+      </c>
+      <c r="AP34">
+        <v>2.6</v>
+      </c>
+      <c r="AQ34">
         <v>1.41</v>
-      </c>
-      <c r="AD34">
-        <v>2.98</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>1.55</v>
-      </c>
-      <c r="AM34">
-        <v>2.4</v>
-      </c>
-      <c r="AN34">
-        <v>1.89</v>
-      </c>
-      <c r="AO34">
-        <v>1.91</v>
-      </c>
-      <c r="AP34">
-        <v>2.35</v>
-      </c>
-      <c r="AQ34">
-        <v>1.57</v>
       </c>
     </row>
     <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2">
         <v>45401</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35">
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G35">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="H35">
+        <v>2.38</v>
+      </c>
+      <c r="I35">
         <v>2.5</v>
       </c>
-      <c r="I35">
-        <v>5.5</v>
-      </c>
       <c r="J35">
-        <v>1.44</v>
+        <v>3.4</v>
       </c>
       <c r="K35">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="N35">
-        <v>3.46</v>
+        <v>3.54</v>
       </c>
       <c r="O35">
         <v>1.02</v>
@@ -5500,7 +5518,7 @@
         <v>1.15</v>
       </c>
       <c r="R35">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="S35">
         <v>1.57</v>
@@ -5509,73 +5527,73 @@
         <v>2.35</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="V35">
+        <v>2.38</v>
+      </c>
+      <c r="W35">
+        <v>1.75</v>
+      </c>
+      <c r="X35">
+        <v>1.23</v>
+      </c>
+      <c r="Y35">
+        <v>1.29</v>
+      </c>
+      <c r="Z35">
+        <v>1.71</v>
+      </c>
+      <c r="AA35">
+        <v>1.5</v>
+      </c>
+      <c r="AB35">
+        <v>1.57</v>
+      </c>
+      <c r="AC35">
+        <v>1.41</v>
+      </c>
+      <c r="AD35">
+        <v>2.98</v>
+      </c>
+      <c r="AE35">
+        <v>2.2</v>
+      </c>
+      <c r="AF35">
+        <v>9</v>
+      </c>
+      <c r="AG35">
+        <v>1.81</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>1.27</v>
+      </c>
+      <c r="AK35">
+        <v>3.28</v>
+      </c>
+      <c r="AL35">
+        <v>1.55</v>
+      </c>
+      <c r="AM35">
+        <v>2.4</v>
+      </c>
+      <c r="AN35">
+        <v>1.89</v>
+      </c>
+      <c r="AO35">
         <v>1.91</v>
       </c>
-      <c r="W35">
-        <v>1.12</v>
-      </c>
-      <c r="X35">
-        <v>1.17</v>
-      </c>
-      <c r="Y35">
-        <v>2.4</v>
-      </c>
-      <c r="Z35">
-        <v>1.93</v>
-      </c>
-      <c r="AA35">
-        <v>1.13</v>
-      </c>
-      <c r="AB35">
-        <v>1.43</v>
-      </c>
-      <c r="AC35">
-        <v>1.54</v>
-      </c>
-      <c r="AD35">
-        <v>2.97</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>1.65</v>
-      </c>
-      <c r="AM35">
-        <v>2.19</v>
-      </c>
-      <c r="AN35">
-        <v>2.06</v>
-      </c>
-      <c r="AO35">
-        <v>1.74</v>
-      </c>
       <c r="AP35">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -5586,16 +5604,16 @@
         <v>45401</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -5607,13 +5625,13 @@
         <v>3.8</v>
       </c>
       <c r="J36">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="M36">
         <v>1.5</v>
@@ -5634,10 +5652,10 @@
         <v>2.83</v>
       </c>
       <c r="S36">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="T36">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="U36">
         <v>1.95</v>
@@ -5717,16 +5735,16 @@
         <v>45401</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G37">
         <v>3.25</v>
@@ -5738,13 +5756,13 @@
         <v>3.4</v>
       </c>
       <c r="J37">
-        <v>2.85</v>
+        <v>2.24</v>
       </c>
       <c r="K37">
-        <v>3.27</v>
+        <v>3.05</v>
       </c>
       <c r="L37">
-        <v>2.42</v>
+        <v>2.81</v>
       </c>
       <c r="M37">
         <v>1.44</v>
@@ -5765,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="S37">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="T37">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="U37">
         <v>1.83</v>
@@ -5848,16 +5866,16 @@
         <v>45401</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38">
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G38">
         <v>3.25</v>
@@ -5869,13 +5887,13 @@
         <v>2.9</v>
       </c>
       <c r="J38">
-        <v>2.71</v>
+        <v>2.78</v>
       </c>
       <c r="K38">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="L38">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="M38">
         <v>1.33</v>
@@ -5896,7 +5914,7 @@
         <v>3.9</v>
       </c>
       <c r="S38">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="T38">
         <v>2.05</v>
@@ -5979,16 +5997,16 @@
         <v>45401</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D39">
         <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G39">
         <v>2.09</v>
@@ -6000,13 +6018,13 @@
         <v>6.15</v>
       </c>
       <c r="J39">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="K39">
-        <v>3.9</v>
+        <v>4.26</v>
       </c>
       <c r="L39">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="M39">
         <v>1.36</v>
@@ -6027,10 +6045,10 @@
         <v>3.65</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="T39">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="U39">
         <v>1.91</v>
@@ -6063,43 +6081,43 @@
         <v>3</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AM39">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AP39">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="40" spans="1:43">
@@ -6110,16 +6128,16 @@
         <v>45401</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D40">
         <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G40">
         <v>2.6</v>
@@ -6131,13 +6149,13 @@
         <v>3.75</v>
       </c>
       <c r="J40">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="K40">
-        <v>3.65</v>
+        <v>4.06</v>
       </c>
       <c r="L40">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="M40">
         <v>1.3</v>
@@ -6158,10 +6176,10 @@
         <v>4.43</v>
       </c>
       <c r="S40">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="T40">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U40">
         <v>1.57</v>
@@ -6241,16 +6259,16 @@
         <v>45401</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D41">
         <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G41">
         <v>3.75</v>
@@ -6262,13 +6280,13 @@
         <v>2.75</v>
       </c>
       <c r="J41">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K41">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L41">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M41">
         <v>1.41</v>
@@ -6372,16 +6390,16 @@
         <v>45401</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42">
         <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G42">
         <v>3.48</v>
@@ -6393,13 +6411,13 @@
         <v>4.37</v>
       </c>
       <c r="J42">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="K42">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="L42">
-        <v>2.74</v>
+        <v>3.46</v>
       </c>
       <c r="M42">
         <v>1.71</v>
@@ -6414,10 +6432,10 @@
         <v>5.25</v>
       </c>
       <c r="Q42">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R42">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="S42">
         <v>3</v>
@@ -6503,58 +6521,58 @@
         <v>45401</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43">
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G43">
+        <v>2.88</v>
+      </c>
+      <c r="H43">
+        <v>2.05</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>1.88</v>
+      </c>
+      <c r="K43">
+        <v>3.4</v>
+      </c>
+      <c r="L43">
+        <v>3.7</v>
+      </c>
+      <c r="M43">
+        <v>1.42</v>
+      </c>
+      <c r="N43">
+        <v>2.65</v>
+      </c>
+      <c r="O43">
+        <v>1.06</v>
+      </c>
+      <c r="P43">
+        <v>8.5</v>
+      </c>
+      <c r="Q43">
+        <v>1.33</v>
+      </c>
+      <c r="R43">
         <v>3.25</v>
       </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>3.6</v>
-      </c>
-      <c r="J43">
-        <v>2.4</v>
-      </c>
-      <c r="K43">
-        <v>2.9</v>
-      </c>
-      <c r="L43">
-        <v>2.75</v>
-      </c>
-      <c r="M43">
-        <v>1.48</v>
-      </c>
-      <c r="N43">
-        <v>2.5</v>
-      </c>
-      <c r="O43">
-        <v>1.07</v>
-      </c>
-      <c r="P43">
-        <v>8</v>
-      </c>
-      <c r="Q43">
-        <v>1.38</v>
-      </c>
-      <c r="R43">
-        <v>2.95</v>
-      </c>
       <c r="S43">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="T43">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="U43">
         <v>1.95</v>
@@ -6563,67 +6581,67 @@
         <v>1.8</v>
       </c>
       <c r="W43">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X43">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y43">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="Z43">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="AA43">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AB43">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="AC43">
-        <v>1.56</v>
+        <v>0.87</v>
       </c>
       <c r="AD43">
-        <v>2.93</v>
+        <v>2.11</v>
       </c>
       <c r="AE43">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AF43">
-        <v>9.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="AG43">
+        <v>3.01</v>
+      </c>
+      <c r="AH43">
+        <v>1.46</v>
+      </c>
+      <c r="AI43">
         <v>2.6</v>
       </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
       <c r="AJ43">
-        <v>1.24</v>
+        <v>1.95</v>
       </c>
       <c r="AK43">
-        <v>3.48</v>
+        <v>1.85</v>
       </c>
       <c r="AL43">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="AM43">
-        <v>2.55</v>
+        <v>1.58</v>
       </c>
       <c r="AN43">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO43">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="AP43">
-        <v>2.23</v>
+        <v>4.2</v>
       </c>
       <c r="AQ43">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="44" spans="1:43">
@@ -6634,127 +6652,127 @@
         <v>45401</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D44">
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G44">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="H44">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="I44">
         <v>4</v>
       </c>
       <c r="J44">
-        <v>2.05</v>
+        <v>2.62</v>
       </c>
       <c r="K44">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>2.52</v>
       </c>
       <c r="M44">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="N44">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P44">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q44">
+        <v>1.5</v>
+      </c>
+      <c r="R44">
+        <v>2.4</v>
+      </c>
+      <c r="S44">
+        <v>2.12</v>
+      </c>
+      <c r="T44">
+        <v>1.59</v>
+      </c>
+      <c r="U44">
+        <v>2.2</v>
+      </c>
+      <c r="V44">
+        <v>1.62</v>
+      </c>
+      <c r="W44">
+        <v>1.48</v>
+      </c>
+      <c r="X44">
+        <v>1.28</v>
+      </c>
+      <c r="Y44">
+        <v>1.45</v>
+      </c>
+      <c r="Z44">
+        <v>0.8</v>
+      </c>
+      <c r="AA44">
+        <v>2.2</v>
+      </c>
+      <c r="AB44">
         <v>1.33</v>
       </c>
-      <c r="R44">
-        <v>3.25</v>
-      </c>
-      <c r="S44">
-        <v>2.1</v>
-      </c>
-      <c r="T44">
-        <v>1.65</v>
-      </c>
-      <c r="U44">
-        <v>1.95</v>
-      </c>
-      <c r="V44">
+      <c r="AC44">
+        <v>1.08</v>
+      </c>
+      <c r="AD44">
+        <v>2.41</v>
+      </c>
+      <c r="AE44">
+        <v>1.72</v>
+      </c>
+      <c r="AF44">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG44">
+        <v>2.56</v>
+      </c>
+      <c r="AH44">
+        <v>1.29</v>
+      </c>
+      <c r="AI44">
+        <v>3.14</v>
+      </c>
+      <c r="AJ44">
+        <v>1.56</v>
+      </c>
+      <c r="AK44">
+        <v>2.27</v>
+      </c>
+      <c r="AL44">
+        <v>2</v>
+      </c>
+      <c r="AM44">
         <v>1.8</v>
       </c>
-      <c r="W44">
-        <v>1.3</v>
-      </c>
-      <c r="X44">
-        <v>1.25</v>
-      </c>
-      <c r="Y44">
-        <v>1.7</v>
-      </c>
-      <c r="Z44">
-        <v>1.25</v>
-      </c>
-      <c r="AA44">
-        <v>0.2</v>
-      </c>
-      <c r="AB44">
+      <c r="AN44">
+        <v>2.57</v>
+      </c>
+      <c r="AO44">
+        <v>1.44</v>
+      </c>
+      <c r="AP44">
+        <v>3.48</v>
+      </c>
+      <c r="AQ44">
         <v>1.24</v>
-      </c>
-      <c r="AC44">
-        <v>0.87</v>
-      </c>
-      <c r="AD44">
-        <v>2.11</v>
-      </c>
-      <c r="AE44">
-        <v>1.59</v>
-      </c>
-      <c r="AF44">
-        <v>8</v>
-      </c>
-      <c r="AG44">
-        <v>2.9</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>1.95</v>
-      </c>
-      <c r="AK44">
-        <v>1.85</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:43">
@@ -6765,40 +6783,40 @@
         <v>45401</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D45">
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F45" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G45">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="H45">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="J45">
-        <v>1.83</v>
+        <v>2.47</v>
       </c>
       <c r="K45">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>2.85</v>
       </c>
       <c r="M45">
         <v>1.48</v>
       </c>
       <c r="N45">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O45">
         <v>1.07</v>
@@ -6807,56 +6825,56 @@
         <v>8</v>
       </c>
       <c r="Q45">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="R45">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="S45">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T45">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="U45">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="X45">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y45">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="Z45">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AA45">
         <v>1.4</v>
       </c>
       <c r="AB45">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AC45">
-        <v>0.98</v>
+        <v>1.56</v>
       </c>
       <c r="AD45">
+        <v>2.93</v>
+      </c>
+      <c r="AE45">
+        <v>1.78</v>
+      </c>
+      <c r="AF45">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG45">
         <v>2.41</v>
       </c>
-      <c r="AE45">
-        <v>1.82</v>
-      </c>
-      <c r="AF45">
-        <v>8.5</v>
-      </c>
-      <c r="AG45">
-        <v>2.32</v>
-      </c>
       <c r="AH45">
         <v>0</v>
       </c>
@@ -6864,28 +6882,28 @@
         <v>0</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AL45">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AM45">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AN45">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="46" spans="1:43">
@@ -6896,16 +6914,16 @@
         <v>45401</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D46">
         <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G46">
         <v>5.5</v>
@@ -6917,13 +6935,13 @@
         <v>2.4</v>
       </c>
       <c r="J46">
-        <v>4.4</v>
+        <v>4.62</v>
       </c>
       <c r="K46">
-        <v>3.45</v>
+        <v>3.54</v>
       </c>
       <c r="L46">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="M46">
         <v>1.44</v>
@@ -6944,10 +6962,10 @@
         <v>3.18</v>
       </c>
       <c r="S46">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="T46">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U46">
         <v>2</v>
@@ -7027,127 +7045,127 @@
         <v>45401</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D47">
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G47">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I47">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J47">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="K47">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L47">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="M47">
+        <v>1.48</v>
+      </c>
+      <c r="N47">
+        <v>2.45</v>
+      </c>
+      <c r="O47">
+        <v>1.07</v>
+      </c>
+      <c r="P47">
+        <v>8</v>
+      </c>
+      <c r="Q47">
         <v>1.4</v>
       </c>
-      <c r="N47">
-        <v>2.75</v>
-      </c>
-      <c r="O47">
-        <v>1.05</v>
-      </c>
-      <c r="P47">
-        <v>9</v>
-      </c>
-      <c r="Q47">
-        <v>1.3</v>
-      </c>
       <c r="R47">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="S47">
+        <v>2.22</v>
+      </c>
+      <c r="T47">
+        <v>1.54</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>1.75</v>
+      </c>
+      <c r="W47">
+        <v>1.22</v>
+      </c>
+      <c r="X47">
+        <v>1.25</v>
+      </c>
+      <c r="Y47">
         <v>1.85</v>
       </c>
-      <c r="T47">
-        <v>1.85</v>
-      </c>
-      <c r="U47">
+      <c r="Z47">
         <v>1.8</v>
       </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
-      <c r="W47">
-        <v>1.15</v>
-      </c>
-      <c r="X47">
-        <v>1.2</v>
-      </c>
-      <c r="Y47">
-        <v>2.15</v>
-      </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>1.4</v>
       </c>
-      <c r="AA47">
-        <v>0.5</v>
-      </c>
       <c r="AB47">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="AC47">
+        <v>0.98</v>
+      </c>
+      <c r="AD47">
+        <v>2.41</v>
+      </c>
+      <c r="AE47">
+        <v>1.62</v>
+      </c>
+      <c r="AF47">
+        <v>8.6</v>
+      </c>
+      <c r="AG47">
+        <v>2.81</v>
+      </c>
+      <c r="AH47">
         <v>1.17</v>
       </c>
-      <c r="AD47">
-        <v>2.27</v>
-      </c>
-      <c r="AE47">
-        <v>1.48</v>
-      </c>
-      <c r="AF47">
-        <v>10.5</v>
-      </c>
-      <c r="AG47">
-        <v>3.18</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
       <c r="AI47">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ47">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AK47">
-        <v>3.74</v>
+        <v>3.2</v>
       </c>
       <c r="AL47">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AM47">
-        <v>2.72</v>
+        <v>2.35</v>
       </c>
       <c r="AN47">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AO47">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="AP47">
-        <v>2.11</v>
+        <v>2.4</v>
       </c>
       <c r="AQ47">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="48" spans="1:43">
@@ -7158,127 +7176,127 @@
         <v>45401</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D48">
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F48" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G48">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="H48">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="I48">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="J48">
-        <v>2.55</v>
+        <v>1.58</v>
       </c>
       <c r="K48">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="L48">
-        <v>2.55</v>
+        <v>5.2</v>
       </c>
       <c r="M48">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O48">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q48">
+        <v>1.3</v>
+      </c>
+      <c r="R48">
+        <v>3.4</v>
+      </c>
+      <c r="S48">
+        <v>1.87</v>
+      </c>
+      <c r="T48">
+        <v>1.77</v>
+      </c>
+      <c r="U48">
+        <v>1.8</v>
+      </c>
+      <c r="V48">
+        <v>1.95</v>
+      </c>
+      <c r="W48">
+        <v>1.15</v>
+      </c>
+      <c r="X48">
+        <v>1.2</v>
+      </c>
+      <c r="Y48">
+        <v>2.15</v>
+      </c>
+      <c r="Z48">
         <v>1.4</v>
       </c>
-      <c r="R48">
-        <v>2.9</v>
-      </c>
-      <c r="S48">
-        <v>2.15</v>
-      </c>
-      <c r="T48">
-        <v>1.62</v>
-      </c>
-      <c r="U48">
-        <v>2.1</v>
-      </c>
-      <c r="V48">
-        <v>1.67</v>
-      </c>
-      <c r="W48">
-        <v>1.48</v>
-      </c>
-      <c r="X48">
-        <v>1.28</v>
-      </c>
-      <c r="Y48">
-        <v>1.45</v>
-      </c>
-      <c r="Z48">
-        <v>0.8</v>
-      </c>
       <c r="AA48">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="AB48">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AC48">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AD48">
-        <v>2.41</v>
+        <v>2.27</v>
       </c>
       <c r="AE48">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="AF48">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AG48">
-        <v>2.55</v>
+        <v>3.35</v>
       </c>
       <c r="AH48">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AI48">
-        <v>3.14</v>
+        <v>4.8</v>
       </c>
       <c r="AJ48">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
       <c r="AK48">
-        <v>2.27</v>
+        <v>3.74</v>
       </c>
       <c r="AL48">
         <v>2</v>
       </c>
       <c r="AM48">
-        <v>1.8</v>
+        <v>2.72</v>
       </c>
       <c r="AN48">
-        <v>2.57</v>
+        <v>1.7</v>
       </c>
       <c r="AO48">
-        <v>1.44</v>
+        <v>2.08</v>
       </c>
       <c r="AP48">
-        <v>3.48</v>
+        <v>2.11</v>
       </c>
       <c r="AQ48">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="49" spans="1:43">
@@ -7289,127 +7307,127 @@
         <v>45401</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G49">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="H49">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="I49">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="J49">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="K49">
-        <v>3.9</v>
+        <v>7.1</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="M49">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="N49">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O49">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P49">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q49">
+        <v>1.2</v>
+      </c>
+      <c r="R49">
+        <v>4.5</v>
+      </c>
+      <c r="S49">
+        <v>1.64</v>
+      </c>
+      <c r="T49">
+        <v>2.26</v>
+      </c>
+      <c r="U49">
+        <v>2.2</v>
+      </c>
+      <c r="V49">
+        <v>1.62</v>
+      </c>
+      <c r="W49">
+        <v>1.01</v>
+      </c>
+      <c r="X49">
+        <v>1.11</v>
+      </c>
+      <c r="Y49">
+        <v>3.75</v>
+      </c>
+      <c r="Z49">
+        <v>2.31</v>
+      </c>
+      <c r="AA49">
+        <v>0.13</v>
+      </c>
+      <c r="AB49">
+        <v>1.67</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
+        <v>2.67</v>
+      </c>
+      <c r="AE49">
+        <v>1.22</v>
+      </c>
+      <c r="AF49">
+        <v>12.25</v>
+      </c>
+      <c r="AG49">
+        <v>5.4</v>
+      </c>
+      <c r="AH49">
+        <v>1.23</v>
+      </c>
+      <c r="AI49">
+        <v>3.56</v>
+      </c>
+      <c r="AJ49">
+        <v>1.45</v>
+      </c>
+      <c r="AK49">
+        <v>2.59</v>
+      </c>
+      <c r="AL49">
+        <v>1.8</v>
+      </c>
+      <c r="AM49">
+        <v>1.97</v>
+      </c>
+      <c r="AN49">
+        <v>2.28</v>
+      </c>
+      <c r="AO49">
+        <v>1.57</v>
+      </c>
+      <c r="AP49">
+        <v>2.98</v>
+      </c>
+      <c r="AQ49">
         <v>1.32</v>
-      </c>
-      <c r="R49">
-        <v>3.4</v>
-      </c>
-      <c r="S49">
-        <v>2.01</v>
-      </c>
-      <c r="T49">
-        <v>1.85</v>
-      </c>
-      <c r="U49">
-        <v>2.05</v>
-      </c>
-      <c r="V49">
-        <v>1.7</v>
-      </c>
-      <c r="W49">
-        <v>1.11</v>
-      </c>
-      <c r="X49">
-        <v>1.19</v>
-      </c>
-      <c r="Y49">
-        <v>2.55</v>
-      </c>
-      <c r="Z49">
-        <v>1.79</v>
-      </c>
-      <c r="AA49">
-        <v>0.93</v>
-      </c>
-      <c r="AB49">
-        <v>1.45</v>
-      </c>
-      <c r="AC49">
-        <v>1.14</v>
-      </c>
-      <c r="AD49">
-        <v>2.59</v>
-      </c>
-      <c r="AE49">
-        <v>1.34</v>
-      </c>
-      <c r="AF49">
-        <v>10.25</v>
-      </c>
-      <c r="AG49">
-        <v>4.1</v>
-      </c>
-      <c r="AH49">
-        <v>1.27</v>
-      </c>
-      <c r="AI49">
-        <v>3.28</v>
-      </c>
-      <c r="AJ49">
-        <v>1.53</v>
-      </c>
-      <c r="AK49">
-        <v>2.38</v>
-      </c>
-      <c r="AL49">
-        <v>1.93</v>
-      </c>
-      <c r="AM49">
-        <v>1.83</v>
-      </c>
-      <c r="AN49">
-        <v>2.5</v>
-      </c>
-      <c r="AO49">
-        <v>1.48</v>
-      </c>
-      <c r="AP49">
-        <v>3.34</v>
-      </c>
-      <c r="AQ49">
-        <v>1.26</v>
       </c>
     </row>
     <row r="50" spans="1:43">
@@ -7420,16 +7438,16 @@
         <v>45401</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D50">
         <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F50" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G50">
         <v>2.6</v>
@@ -7441,13 +7459,13 @@
         <v>4.5</v>
       </c>
       <c r="J50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K50">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L50">
-        <v>3.8</v>
+        <v>3.91</v>
       </c>
       <c r="M50">
         <v>1.4</v>
@@ -7468,10 +7486,10 @@
         <v>3.25</v>
       </c>
       <c r="S50">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U50">
         <v>1.91</v>
@@ -7551,127 +7569,127 @@
         <v>45401</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D51">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F51" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G51">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="H51">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="I51">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="J51">
+        <v>1.54</v>
+      </c>
+      <c r="K51">
+        <v>4.24</v>
+      </c>
+      <c r="L51">
+        <v>5.9</v>
+      </c>
+      <c r="M51">
+        <v>1.4</v>
+      </c>
+      <c r="N51">
+        <v>2.75</v>
+      </c>
+      <c r="O51">
+        <v>1.05</v>
+      </c>
+      <c r="P51">
+        <v>11</v>
+      </c>
+      <c r="Q51">
+        <v>1.32</v>
+      </c>
+      <c r="R51">
+        <v>3.4</v>
+      </c>
+      <c r="S51">
+        <v>2.38</v>
+      </c>
+      <c r="T51">
+        <v>1.58</v>
+      </c>
+      <c r="U51">
+        <v>2.05</v>
+      </c>
+      <c r="V51">
+        <v>1.7</v>
+      </c>
+      <c r="W51">
+        <v>1.11</v>
+      </c>
+      <c r="X51">
+        <v>1.19</v>
+      </c>
+      <c r="Y51">
+        <v>2.55</v>
+      </c>
+      <c r="Z51">
+        <v>1.79</v>
+      </c>
+      <c r="AA51">
+        <v>0.93</v>
+      </c>
+      <c r="AB51">
+        <v>1.45</v>
+      </c>
+      <c r="AC51">
+        <v>1.14</v>
+      </c>
+      <c r="AD51">
+        <v>2.59</v>
+      </c>
+      <c r="AE51">
+        <v>1.34</v>
+      </c>
+      <c r="AF51">
+        <v>10.25</v>
+      </c>
+      <c r="AG51">
+        <v>4.1</v>
+      </c>
+      <c r="AH51">
+        <v>1.27</v>
+      </c>
+      <c r="AI51">
+        <v>3.28</v>
+      </c>
+      <c r="AJ51">
+        <v>1.53</v>
+      </c>
+      <c r="AK51">
+        <v>2.38</v>
+      </c>
+      <c r="AL51">
+        <v>1.93</v>
+      </c>
+      <c r="AM51">
+        <v>1.83</v>
+      </c>
+      <c r="AN51">
+        <v>2.5</v>
+      </c>
+      <c r="AO51">
+        <v>1.48</v>
+      </c>
+      <c r="AP51">
+        <v>3.34</v>
+      </c>
+      <c r="AQ51">
         <v>1.26</v>
-      </c>
-      <c r="K51">
-        <v>5.3</v>
-      </c>
-      <c r="L51">
-        <v>10</v>
-      </c>
-      <c r="M51">
-        <v>1.3</v>
-      </c>
-      <c r="N51">
-        <v>3.4</v>
-      </c>
-      <c r="O51">
-        <v>1.03</v>
-      </c>
-      <c r="P51">
-        <v>15</v>
-      </c>
-      <c r="Q51">
-        <v>1.2</v>
-      </c>
-      <c r="R51">
-        <v>4.5</v>
-      </c>
-      <c r="S51">
-        <v>1.67</v>
-      </c>
-      <c r="T51">
-        <v>2.15</v>
-      </c>
-      <c r="U51">
-        <v>2.2</v>
-      </c>
-      <c r="V51">
-        <v>1.62</v>
-      </c>
-      <c r="W51">
-        <v>1.01</v>
-      </c>
-      <c r="X51">
-        <v>1.11</v>
-      </c>
-      <c r="Y51">
-        <v>3.75</v>
-      </c>
-      <c r="Z51">
-        <v>2.31</v>
-      </c>
-      <c r="AA51">
-        <v>0.13</v>
-      </c>
-      <c r="AB51">
-        <v>1.67</v>
-      </c>
-      <c r="AC51">
-        <v>1</v>
-      </c>
-      <c r="AD51">
-        <v>2.67</v>
-      </c>
-      <c r="AE51">
-        <v>1.22</v>
-      </c>
-      <c r="AF51">
-        <v>12.25</v>
-      </c>
-      <c r="AG51">
-        <v>5.4</v>
-      </c>
-      <c r="AH51">
-        <v>1.23</v>
-      </c>
-      <c r="AI51">
-        <v>3.56</v>
-      </c>
-      <c r="AJ51">
-        <v>1.45</v>
-      </c>
-      <c r="AK51">
-        <v>2.59</v>
-      </c>
-      <c r="AL51">
-        <v>1.8</v>
-      </c>
-      <c r="AM51">
-        <v>1.97</v>
-      </c>
-      <c r="AN51">
-        <v>2.28</v>
-      </c>
-      <c r="AO51">
-        <v>1.57</v>
-      </c>
-      <c r="AP51">
-        <v>2.98</v>
-      </c>
-      <c r="AQ51">
-        <v>1.32</v>
       </c>
     </row>
     <row r="52" spans="1:43">
@@ -7682,16 +7700,16 @@
         <v>45401</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F52" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G52">
         <v>3.25</v>
@@ -7703,13 +7721,13 @@
         <v>2.5</v>
       </c>
       <c r="J52">
-        <v>2.86</v>
+        <v>2.91</v>
       </c>
       <c r="K52">
-        <v>3.57</v>
+        <v>3.65</v>
       </c>
       <c r="L52">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="M52">
         <v>1.25</v>
@@ -7766,13 +7784,13 @@
         <v>3.89</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH52">
         <v>0</v>
@@ -7781,28 +7799,28 @@
         <v>0</v>
       </c>
       <c r="AJ52">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AK52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL52">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AM52">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AP52">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="53" spans="1:43">
@@ -7813,16 +7831,16 @@
         <v>45401</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D53">
         <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -7834,13 +7852,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="K53">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L53">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -7861,10 +7879,10 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T53">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -7944,127 +7962,127 @@
         <v>45401</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" t="s">
+        <v>203</v>
+      </c>
+      <c r="G54">
+        <v>3.25</v>
+      </c>
+      <c r="H54">
+        <v>2.05</v>
+      </c>
+      <c r="I54">
+        <v>3.4</v>
+      </c>
+      <c r="J54">
+        <v>2.48</v>
+      </c>
+      <c r="K54">
+        <v>3.05</v>
+      </c>
+      <c r="L54">
+        <v>2.63</v>
+      </c>
+      <c r="M54">
+        <v>1.45</v>
+      </c>
+      <c r="N54">
+        <v>2.55</v>
+      </c>
+      <c r="O54">
+        <v>1.06</v>
+      </c>
+      <c r="P54">
+        <v>8</v>
+      </c>
+      <c r="Q54">
+        <v>1.36</v>
+      </c>
+      <c r="R54">
         <v>3</v>
       </c>
-      <c r="E54" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" t="s">
-        <v>199</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
       <c r="S54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AA54">
-        <v>3</v>
+        <v>1.46</v>
       </c>
       <c r="AB54">
-        <v>0.99</v>
+        <v>1.38</v>
       </c>
       <c r="AC54">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AD54">
-        <v>1.79</v>
+        <v>2.71</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ54">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK54">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AL54">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM54">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AP54">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -8075,258 +8093,258 @@
         <v>45401</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
         <v>1</v>
       </c>
-      <c r="E55" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" t="s">
-        <v>200</v>
-      </c>
-      <c r="G55">
-        <v>3.75</v>
-      </c>
-      <c r="H55">
-        <v>1.91</v>
-      </c>
-      <c r="I55">
-        <v>3.25</v>
-      </c>
-      <c r="J55">
-        <v>2.76</v>
-      </c>
-      <c r="K55">
-        <v>3.1</v>
-      </c>
-      <c r="L55">
-        <v>2.61</v>
-      </c>
-      <c r="M55">
-        <v>1.52</v>
-      </c>
-      <c r="N55">
-        <v>2.39</v>
-      </c>
-      <c r="O55">
-        <v>1.1</v>
-      </c>
-      <c r="P55">
-        <v>6.5</v>
-      </c>
-      <c r="Q55">
-        <v>1.45</v>
-      </c>
-      <c r="R55">
-        <v>2.65</v>
-      </c>
-      <c r="S55">
-        <v>2.38</v>
-      </c>
-      <c r="T55">
-        <v>1.51</v>
-      </c>
-      <c r="U55">
-        <v>2.1</v>
-      </c>
-      <c r="V55">
-        <v>1.67</v>
-      </c>
-      <c r="W55">
-        <v>1.45</v>
-      </c>
-      <c r="X55">
-        <v>1.3</v>
-      </c>
-      <c r="Y55">
-        <v>1.44</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
       <c r="AA55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AE55">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AF55">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG55">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AH55">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AI55">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AJ55">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AK55">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AL55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM55">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AN55">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AO55">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AQ55">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:43">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2">
         <v>45401</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G56">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="H56">
+        <v>1.95</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>2.94</v>
+      </c>
+      <c r="K56">
+        <v>2.84</v>
+      </c>
+      <c r="L56">
+        <v>2.45</v>
+      </c>
+      <c r="M56">
+        <v>1.52</v>
+      </c>
+      <c r="N56">
+        <v>2.39</v>
+      </c>
+      <c r="O56">
+        <v>1.1</v>
+      </c>
+      <c r="P56">
+        <v>6.5</v>
+      </c>
+      <c r="Q56">
+        <v>1.45</v>
+      </c>
+      <c r="R56">
+        <v>2.65</v>
+      </c>
+      <c r="S56">
+        <v>2.54</v>
+      </c>
+      <c r="T56">
+        <v>1.42</v>
+      </c>
+      <c r="U56">
+        <v>2.1</v>
+      </c>
+      <c r="V56">
+        <v>1.67</v>
+      </c>
+      <c r="W56">
+        <v>1.45</v>
+      </c>
+      <c r="X56">
+        <v>1.3</v>
+      </c>
+      <c r="Y56">
+        <v>1.44</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>2.02</v>
+      </c>
+      <c r="AF56">
+        <v>7.4</v>
+      </c>
+      <c r="AG56">
+        <v>2.13</v>
+      </c>
+      <c r="AH56">
+        <v>1.19</v>
+      </c>
+      <c r="AI56">
+        <v>4.5</v>
+      </c>
+      <c r="AJ56">
+        <v>1.35</v>
+      </c>
+      <c r="AK56">
+        <v>3.05</v>
+      </c>
+      <c r="AL56">
         <v>2</v>
       </c>
-      <c r="I56">
-        <v>6</v>
-      </c>
-      <c r="J56">
-        <v>1.81</v>
-      </c>
-      <c r="K56">
-        <v>3.38</v>
-      </c>
-      <c r="L56">
-        <v>4.62</v>
-      </c>
-      <c r="M56">
-        <v>1.51</v>
-      </c>
-      <c r="N56">
-        <v>2.4</v>
-      </c>
-      <c r="O56">
-        <v>1.08</v>
-      </c>
-      <c r="P56">
-        <v>7.5</v>
-      </c>
-      <c r="Q56">
-        <v>1.44</v>
-      </c>
-      <c r="R56">
-        <v>2.7</v>
-      </c>
-      <c r="S56">
-        <v>2.32</v>
-      </c>
-      <c r="T56">
-        <v>1.54</v>
-      </c>
-      <c r="U56">
-        <v>2.25</v>
-      </c>
-      <c r="V56">
-        <v>1.57</v>
-      </c>
-      <c r="W56">
-        <v>1.15</v>
-      </c>
-      <c r="X56">
-        <v>1.25</v>
-      </c>
-      <c r="Y56">
-        <v>2</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>1.51</v>
-      </c>
-      <c r="AF56">
-        <v>9</v>
-      </c>
-      <c r="AG56">
-        <v>3.14</v>
-      </c>
-      <c r="AH56">
-        <v>1.24</v>
-      </c>
-      <c r="AI56">
-        <v>3.75</v>
-      </c>
-      <c r="AJ56">
-        <v>1.45</v>
-      </c>
-      <c r="AK56">
-        <v>2.55</v>
-      </c>
-      <c r="AL56">
-        <v>1.83</v>
-      </c>
       <c r="AM56">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AN56">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="AO56">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="AP56">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AQ56">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -8337,150 +8355,150 @@
         <v>45401</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D57">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F57" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G57">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="H57">
         <v>2.05</v>
       </c>
       <c r="I57">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="J57">
-        <v>2.56</v>
+        <v>1.7</v>
       </c>
       <c r="K57">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L57">
-        <v>2.68</v>
+        <v>4.85</v>
       </c>
       <c r="M57">
+        <v>1.51</v>
+      </c>
+      <c r="N57">
+        <v>2.4</v>
+      </c>
+      <c r="O57">
+        <v>1.08</v>
+      </c>
+      <c r="P57">
+        <v>7.5</v>
+      </c>
+      <c r="Q57">
+        <v>1.44</v>
+      </c>
+      <c r="R57">
+        <v>2.7</v>
+      </c>
+      <c r="S57">
+        <v>2.37</v>
+      </c>
+      <c r="T57">
+        <v>1.47</v>
+      </c>
+      <c r="U57">
+        <v>2.2</v>
+      </c>
+      <c r="V57">
+        <v>1.62</v>
+      </c>
+      <c r="W57">
+        <v>1.15</v>
+      </c>
+      <c r="X57">
+        <v>1.25</v>
+      </c>
+      <c r="Y57">
+        <v>2</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1.54</v>
+      </c>
+      <c r="AF57">
+        <v>8.4</v>
+      </c>
+      <c r="AG57">
+        <v>3.1</v>
+      </c>
+      <c r="AH57">
+        <v>1.24</v>
+      </c>
+      <c r="AI57">
+        <v>3.75</v>
+      </c>
+      <c r="AJ57">
         <v>1.45</v>
       </c>
-      <c r="N57">
+      <c r="AK57">
         <v>2.55</v>
       </c>
-      <c r="O57">
-        <v>1.06</v>
-      </c>
-      <c r="P57">
-        <v>8</v>
-      </c>
-      <c r="Q57">
-        <v>1.36</v>
-      </c>
-      <c r="R57">
-        <v>3</v>
-      </c>
-      <c r="S57">
-        <v>2.05</v>
-      </c>
-      <c r="T57">
-        <v>1.7</v>
-      </c>
-      <c r="U57">
+      <c r="AL57">
         <v>1.83</v>
       </c>
-      <c r="V57">
-        <v>1.83</v>
-      </c>
-      <c r="W57">
-        <v>1.45</v>
-      </c>
-      <c r="X57">
-        <v>1.28</v>
-      </c>
-      <c r="Y57">
-        <v>1.48</v>
-      </c>
-      <c r="Z57">
-        <v>1.08</v>
-      </c>
-      <c r="AA57">
-        <v>1.46</v>
-      </c>
-      <c r="AB57">
-        <v>1.38</v>
-      </c>
-      <c r="AC57">
-        <v>1.33</v>
-      </c>
-      <c r="AD57">
-        <v>2.71</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
-      <c r="AK57">
-        <v>0</v>
-      </c>
-      <c r="AL57">
+      <c r="AM57">
         <v>1.98</v>
       </c>
-      <c r="AM57">
-        <v>1.82</v>
-      </c>
       <c r="AN57">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AP57">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AQ57">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="58" spans="1:43">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2">
         <v>45401</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F58" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -8489,13 +8507,13 @@
         <v>4</v>
       </c>
       <c r="J58">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="K58">
-        <v>3.14</v>
+        <v>2.93</v>
       </c>
       <c r="L58">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="M58">
         <v>1.52</v>
@@ -8516,10 +8534,10 @@
         <v>2.6</v>
       </c>
       <c r="S58">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="T58">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -8589,6 +8607,268 @@
       </c>
       <c r="AQ58">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45401</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" t="s">
+        <v>208</v>
+      </c>
+      <c r="G59">
+        <v>3.25</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>3.2</v>
+      </c>
+      <c r="J59">
+        <v>2.55</v>
+      </c>
+      <c r="K59">
+        <v>3.15</v>
+      </c>
+      <c r="L59">
+        <v>2.55</v>
+      </c>
+      <c r="M59">
+        <v>1.42</v>
+      </c>
+      <c r="N59">
+        <v>2.62</v>
+      </c>
+      <c r="O59">
+        <v>1.06</v>
+      </c>
+      <c r="P59">
+        <v>8</v>
+      </c>
+      <c r="Q59">
+        <v>1.35</v>
+      </c>
+      <c r="R59">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>1.94</v>
+      </c>
+      <c r="T59">
+        <v>1.71</v>
+      </c>
+      <c r="U59">
+        <v>1.73</v>
+      </c>
+      <c r="V59">
+        <v>1.93</v>
+      </c>
+      <c r="W59">
+        <v>1.39</v>
+      </c>
+      <c r="X59">
+        <v>1.29</v>
+      </c>
+      <c r="Y59">
+        <v>1.38</v>
+      </c>
+      <c r="Z59">
+        <v>0.25</v>
+      </c>
+      <c r="AA59">
+        <v>0.8</v>
+      </c>
+      <c r="AB59">
+        <v>1.47</v>
+      </c>
+      <c r="AC59">
+        <v>1.19</v>
+      </c>
+      <c r="AD59">
+        <v>2.66</v>
+      </c>
+      <c r="AE59">
+        <v>2.1</v>
+      </c>
+      <c r="AF59">
+        <v>8</v>
+      </c>
+      <c r="AG59">
+        <v>1.91</v>
+      </c>
+      <c r="AH59">
+        <v>1.17</v>
+      </c>
+      <c r="AI59">
+        <v>4.2</v>
+      </c>
+      <c r="AJ59">
+        <v>1.32</v>
+      </c>
+      <c r="AK59">
+        <v>3.1</v>
+      </c>
+      <c r="AL59">
+        <v>1.54</v>
+      </c>
+      <c r="AM59">
+        <v>2.32</v>
+      </c>
+      <c r="AN59">
+        <v>1.99</v>
+      </c>
+      <c r="AO59">
+        <v>1.73</v>
+      </c>
+      <c r="AP59">
+        <v>2.55</v>
+      </c>
+      <c r="AQ59">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45401</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" t="s">
+        <v>209</v>
+      </c>
+      <c r="G60">
+        <v>4.5</v>
+      </c>
+      <c r="H60">
+        <v>2.2</v>
+      </c>
+      <c r="I60">
+        <v>2.5</v>
+      </c>
+      <c r="J60">
+        <v>3.8</v>
+      </c>
+      <c r="K60">
+        <v>3.55</v>
+      </c>
+      <c r="L60">
+        <v>1.83</v>
+      </c>
+      <c r="M60">
+        <v>1.37</v>
+      </c>
+      <c r="N60">
+        <v>2.94</v>
+      </c>
+      <c r="O60">
+        <v>1.01</v>
+      </c>
+      <c r="P60">
+        <v>9.5</v>
+      </c>
+      <c r="Q60">
+        <v>1.25</v>
+      </c>
+      <c r="R60">
+        <v>3.42</v>
+      </c>
+      <c r="S60">
+        <v>1.85</v>
+      </c>
+      <c r="T60">
+        <v>1.83</v>
+      </c>
+      <c r="U60">
+        <v>1.8</v>
+      </c>
+      <c r="V60">
+        <v>1.91</v>
+      </c>
+      <c r="W60">
+        <v>1.91</v>
+      </c>
+      <c r="X60">
+        <v>1.22</v>
+      </c>
+      <c r="Y60">
+        <v>1.2</v>
+      </c>
+      <c r="Z60">
+        <v>1.5</v>
+      </c>
+      <c r="AA60">
+        <v>1.92</v>
+      </c>
+      <c r="AB60">
+        <v>1.36</v>
+      </c>
+      <c r="AC60">
+        <v>1.81</v>
+      </c>
+      <c r="AD60">
+        <v>3.17</v>
+      </c>
+      <c r="AE60">
+        <v>2.4</v>
+      </c>
+      <c r="AF60">
+        <v>8.6</v>
+      </c>
+      <c r="AG60">
+        <v>1.71</v>
+      </c>
+      <c r="AH60">
+        <v>1.23</v>
+      </c>
+      <c r="AI60">
+        <v>3.69</v>
+      </c>
+      <c r="AJ60">
+        <v>1.42</v>
+      </c>
+      <c r="AK60">
+        <v>2.57</v>
+      </c>
+      <c r="AL60">
+        <v>2.2</v>
+      </c>
+      <c r="AM60">
+        <v>1.95</v>
+      </c>
+      <c r="AN60">
+        <v>2.19</v>
+      </c>
+      <c r="AO60">
+        <v>1.57</v>
+      </c>
+      <c r="AP60">
+        <v>2.93</v>
+      </c>
+      <c r="AQ60">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>
